--- a/IELTS/vocabulary/Part01.xlsx
+++ b/IELTS/vocabulary/Part01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15945" windowHeight="3465"/>
+    <workbookView windowWidth="21600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="113">
   <si>
     <t>复习次数</t>
   </si>
@@ -41,7 +41,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -51,7 +51,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -61,7 +61,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -79,7 +79,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -89,7 +89,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -99,7 +99,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -109,7 +109,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -119,7 +119,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -137,7 +137,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -147,7 +147,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -157,7 +157,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -172,7 +172,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -182,7 +182,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -192,7 +192,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -202,7 +202,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -212,7 +212,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -222,7 +222,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -232,7 +232,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -250,7 +250,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -260,7 +260,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -270,7 +270,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -288,7 +288,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -298,7 +298,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -308,7 +308,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -320,13 +320,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Antarctica has a huge thick ice </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -336,7 +343,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -346,7 +353,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -356,7 +363,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -374,7 +381,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -384,7 +391,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -399,7 +406,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -409,7 +416,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -419,7 +426,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -431,13 +438,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">All he knows is his current </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -447,7 +461,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -457,7 +471,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -467,7 +481,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -485,7 +499,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -495,7 +509,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -505,7 +519,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -515,7 +529,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -525,7 +539,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -546,7 +560,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -556,7 +570,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -566,7 +580,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -587,13 +601,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">But are these natural </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -603,7 +624,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -621,13 +642,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">That </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -637,7 +665,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -647,7 +675,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -657,7 +685,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -681,7 +709,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -691,7 +719,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -701,7 +729,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -716,13 +744,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">And if you </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -732,7 +767,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -742,7 +777,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -752,7 +787,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -770,13 +805,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">There were no </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -786,7 +828,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -804,13 +846,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">We're losing </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -820,7 +869,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -830,7 +879,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -840,7 +889,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -855,13 +904,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">They were building an extremely </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -871,7 +927,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -881,7 +937,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -891,7 +947,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -912,13 +968,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">This </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -928,7 +991,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -938,7 +1001,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -948,7 +1011,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -966,13 +1029,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Climate change is a global </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -982,7 +1052,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -997,13 +1067,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Suddenly, Mr Duncan saw the red </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1013,7 +1090,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1025,13 +1102,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Radio waves </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1041,7 +1125,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1051,7 +1135,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1061,7 +1145,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1079,13 +1163,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Miners</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1095,7 +1186,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1105,7 +1196,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1120,13 +1211,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The area is thought to be rich in gold and other </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1136,7 +1234,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1145,6 +1243,311 @@
   </si>
   <si>
     <t>n.矿物，矿产</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He hit his head on the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>marble</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> floor.</t>
+    </r>
+  </si>
+  <si>
+    <t>n.大理石</t>
+  </si>
+  <si>
+    <t>Her eyes looked like marbles. n.玻璃珠</t>
+  </si>
+  <si>
+    <t>That woman was really losing her marbles toward the end. lose your marbles 失去理智</t>
+  </si>
+  <si>
+    <r>
+      <t>Quartz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a hard, colorless mineral.</t>
+    </r>
+  </si>
+  <si>
+    <t>n.石英</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I thought you said these </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tunnels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> were </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>granite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>n.花岗岩</t>
+  </si>
+  <si>
+    <t>tunnel n.隧道</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gust</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of wind blew my hat away.</t>
+    </r>
+  </si>
+  <si>
+    <t>n.一阵狂风</t>
+  </si>
+  <si>
+    <t>Wind gust to 90 miles an hour.  vi.(风)猛吹</t>
+  </si>
+  <si>
+    <r>
+      <t>Did someone just feel a cold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> breeze</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>n.微风</t>
+  </si>
+  <si>
+    <t>This contest is a breeze. n.轻而易举的事</t>
+  </si>
+  <si>
+    <r>
+      <t>At high altitude, the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> monsoon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rains fall as snow.</t>
+    </r>
+  </si>
+  <si>
+    <t>n.季风，雨季</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Many trees were blown down in the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>n.大风</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Why did the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>horricane</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> destroy our town?</t>
+    </r>
+  </si>
+  <si>
+    <t>n.飓风</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tornado</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> outside Wichita killed 2 and injured 9 last night.</t>
+    </r>
+  </si>
+  <si>
+    <t>n.龙卷风</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It's called a super </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>typhoon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> because it's especially powerful.</t>
+    </r>
+  </si>
+  <si>
+    <t>n.台风</t>
   </si>
 </sst>
 </file>
@@ -1153,15 +1556,15 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1169,64 +1572,65 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1234,7 +1638,15 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1242,31 +1654,37 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1274,7 +1692,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1282,52 +1700,37 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1338,54 +1741,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1401,7 +1756,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1413,55 +1876,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1473,55 +1912,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1627,15 +2030,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1655,7 +2049,36 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1674,175 +2097,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1907,57 +2310,79 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2228,18 +2653,18 @@
   <sheetPr/>
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:A51"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.6583333333333" customWidth="1"/>
-    <col min="2" max="2" width="81.125" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="60.25" customWidth="1"/>
-    <col min="5" max="5" width="29.625" customWidth="1"/>
-    <col min="6" max="6" width="31.5" customWidth="1"/>
+    <col min="1" max="1" width="9.08108108108108" customWidth="1"/>
+    <col min="2" max="2" width="66.3243243243243" customWidth="1"/>
+    <col min="3" max="3" width="14.6216216216216" customWidth="1"/>
+    <col min="4" max="4" width="74.945945945946" customWidth="1"/>
+    <col min="5" max="5" width="29.6216216216216" customWidth="1"/>
+    <col min="6" max="6" width="31.5045045045045" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:6">
@@ -2874,28 +3299,232 @@
       <c r="E51" s="20"/>
       <c r="F51" s="21"/>
     </row>
-    <row r="52" ht="20" customHeight="1"/>
-    <row r="53" ht="20" customHeight="1"/>
-    <row r="54" ht="20" customHeight="1"/>
-    <row r="55" ht="20" customHeight="1"/>
-    <row r="56" ht="20" customHeight="1"/>
-    <row r="57" ht="20" customHeight="1"/>
-    <row r="58" ht="20" customHeight="1"/>
-    <row r="59" ht="20" customHeight="1"/>
-    <row r="60" ht="20" customHeight="1"/>
-    <row r="61" ht="20" customHeight="1"/>
-    <row r="62" ht="20" customHeight="1"/>
-    <row r="63" ht="20" customHeight="1"/>
-    <row r="64" ht="20" customHeight="1"/>
-    <row r="65" ht="20" customHeight="1"/>
-    <row r="66" ht="20" customHeight="1"/>
-    <row r="67" ht="20" customHeight="1"/>
-    <row r="68" ht="20" customHeight="1"/>
-    <row r="69" ht="20" customHeight="1"/>
-    <row r="70" ht="20" customHeight="1"/>
-    <row r="71" ht="20" customHeight="1"/>
-    <row r="72" ht="20" customHeight="1"/>
-    <row r="73" ht="20" customHeight="1"/>
+    <row r="52" ht="20" customHeight="1" spans="1:6">
+      <c r="A52" s="28"/>
+      <c r="B52" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" s="31"/>
+      <c r="F52" s="32"/>
+    </row>
+    <row r="53" ht="20" customHeight="1" spans="1:6">
+      <c r="A53" s="33"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" s="35"/>
+      <c r="F53" s="36"/>
+    </row>
+    <row r="54" ht="20" customHeight="1" spans="1:6">
+      <c r="A54" s="28"/>
+      <c r="B54" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="32"/>
+    </row>
+    <row r="55" ht="20" customHeight="1" spans="1:6">
+      <c r="A55" s="33"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="36"/>
+    </row>
+    <row r="56" ht="20" customHeight="1" spans="1:6">
+      <c r="A56" s="28"/>
+      <c r="B56" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" ht="20" customHeight="1" spans="1:6">
+      <c r="A57" s="33"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="36"/>
+    </row>
+    <row r="58" ht="20" customHeight="1" spans="1:6">
+      <c r="A58" s="28"/>
+      <c r="B58" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="31"/>
+      <c r="F58" s="32"/>
+    </row>
+    <row r="59" ht="20" customHeight="1" spans="1:6">
+      <c r="A59" s="33"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="36"/>
+    </row>
+    <row r="60" ht="20" customHeight="1" spans="1:6">
+      <c r="A60" s="28"/>
+      <c r="B60" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" s="31"/>
+      <c r="F60" s="32"/>
+    </row>
+    <row r="61" ht="20" customHeight="1" spans="1:6">
+      <c r="A61" s="33"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="36"/>
+    </row>
+    <row r="62" ht="20" customHeight="1" spans="1:6">
+      <c r="A62" s="28"/>
+      <c r="B62" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="32"/>
+    </row>
+    <row r="63" ht="20" customHeight="1" spans="1:6">
+      <c r="A63" s="33"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="36"/>
+    </row>
+    <row r="64" ht="20" customHeight="1" spans="1:6">
+      <c r="A64" s="28"/>
+      <c r="B64" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="32"/>
+    </row>
+    <row r="65" ht="20" customHeight="1" spans="1:6">
+      <c r="A65" s="33"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="36"/>
+    </row>
+    <row r="66" ht="20" customHeight="1" spans="1:6">
+      <c r="A66" s="28"/>
+      <c r="B66" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="32"/>
+    </row>
+    <row r="67" ht="20" customHeight="1" spans="1:6">
+      <c r="A67" s="33"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="36"/>
+    </row>
+    <row r="68" ht="20" customHeight="1" spans="1:6">
+      <c r="A68" s="28"/>
+      <c r="B68" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="32"/>
+    </row>
+    <row r="69" ht="20" customHeight="1" spans="1:6">
+      <c r="A69" s="33"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="36"/>
+    </row>
+    <row r="70" ht="20" customHeight="1" spans="1:6">
+      <c r="A70" s="28"/>
+      <c r="B70" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="32"/>
+    </row>
+    <row r="71" ht="20" customHeight="1" spans="1:6">
+      <c r="A71" s="33"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="36"/>
+    </row>
+    <row r="72" ht="20" customHeight="1" spans="1:6">
+      <c r="A72" s="28"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="32"/>
+    </row>
+    <row r="73" ht="20" customHeight="1" spans="1:6">
+      <c r="A73" s="33"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="36"/>
+    </row>
     <row r="74" ht="20" customHeight="1"/>
     <row r="75" ht="20" customHeight="1"/>
     <row r="76" ht="20" customHeight="1"/>
@@ -2958,7 +3587,7 @@
     <row r="133" ht="20" customHeight="1"/>
     <row r="134" ht="20" customHeight="1"/>
   </sheetData>
-  <mergeCells count="75">
+  <mergeCells count="108">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -2984,6 +3613,17 @@
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -3009,6 +3649,17 @@
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B72:B73"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C7"/>
@@ -3034,6 +3685,17 @@
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
